--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value263.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value263.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6810808928872663</v>
+        <v>2.010394811630249</v>
       </c>
       <c r="B1">
-        <v>0.8139902006974629</v>
+        <v>2.429744958877563</v>
       </c>
       <c r="C1">
-        <v>1.077650562909587</v>
+        <v>2.546634912490845</v>
       </c>
       <c r="D1">
-        <v>2.478358382758617</v>
+        <v>3.19565749168396</v>
       </c>
       <c r="E1">
-        <v>3.637945892301691</v>
+        <v>1.230603933334351</v>
       </c>
     </row>
   </sheetData>
